--- a/doc/table/地图表.xlsx
+++ b/doc/table/地图表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试副本6</t>
   </si>
   <si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>中立区</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -387,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -779,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -796,13 +796,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -816,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -836,13 +836,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -856,13 +856,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -876,13 +876,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -896,13 +896,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -936,13 +936,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -956,13 +956,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -976,13 +976,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -996,13 +996,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1016,13 +1016,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1036,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>1</v>
